--- a/SA_Locations/SA_Location_Minnesota.xlsx
+++ b/SA_Locations/SA_Location_Minnesota.xlsx
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.49</v>
+        <v>60.981</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.162</v>
       </c>
       <c r="D3" t="n">
-        <v>26.644</v>
+        <v>197.677</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>35.596</v>
+        <v>51.555</v>
       </c>
       <c r="G3" t="n">
-        <v>28.108</v>
+        <v>48.828</v>
       </c>
       <c r="H3" t="n">
-        <v>7.487</v>
+        <v>2.727</v>
       </c>
       <c r="I3" t="n">
-        <v>7.487</v>
+        <v>2.727</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>265.839</v>
+        <v>48.828</v>
       </c>
       <c r="L3" t="n">
-        <v>28.108</v>
+        <v>48.828</v>
       </c>
       <c r="M3" t="n">
-        <v>237.731</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>97.42179999999999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>140.3094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.49</v>
+        <v>36.731</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>12.696</v>
       </c>
       <c r="D3" t="n">
-        <v>26.644</v>
+        <v>176.056</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>35.596</v>
+        <v>46.471</v>
       </c>
       <c r="G3" t="n">
-        <v>28.108</v>
+        <v>41.802</v>
       </c>
       <c r="H3" t="n">
-        <v>7.487</v>
+        <v>4.669</v>
       </c>
       <c r="I3" t="n">
-        <v>7.487</v>
+        <v>4.669</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>407.3308</v>
+        <v>65.71000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>28.108</v>
+        <v>41.802</v>
       </c>
       <c r="M3" t="n">
-        <v>379.2228</v>
+        <v>23.908</v>
       </c>
       <c r="N3" t="n">
-        <v>94.78580000000001</v>
+        <v>23.908</v>
       </c>
       <c r="O3" t="n">
-        <v>284.437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.49</v>
+        <v>60.981</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.162</v>
       </c>
       <c r="D3" t="n">
-        <v>26.644</v>
+        <v>197.677</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>35.596</v>
+        <v>51.555</v>
       </c>
       <c r="G3" t="n">
-        <v>28.108</v>
+        <v>48.828</v>
       </c>
       <c r="H3" t="n">
-        <v>7.487</v>
+        <v>2.727</v>
       </c>
       <c r="I3" t="n">
-        <v>7.487</v>
+        <v>2.727</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>192.3812</v>
+        <v>48.828</v>
       </c>
       <c r="L3" t="n">
-        <v>28.108</v>
+        <v>48.828</v>
       </c>
       <c r="M3" t="n">
-        <v>164.2732</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>109.7582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54.51520000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.49</v>
+        <v>36.731</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>12.696</v>
       </c>
       <c r="D3" t="n">
-        <v>26.644</v>
+        <v>176.056</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>35.596</v>
+        <v>47.779</v>
       </c>
       <c r="G3" t="n">
-        <v>28.108</v>
+        <v>41.802</v>
       </c>
       <c r="H3" t="n">
-        <v>7.487</v>
+        <v>5.977</v>
       </c>
       <c r="I3" t="n">
-        <v>7.487</v>
+        <v>5.977</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2932</v>
+        <v>60.4764</v>
       </c>
       <c r="L3" t="n">
-        <v>28.108</v>
+        <v>41.802</v>
       </c>
       <c r="M3" t="n">
-        <v>207.1852</v>
+        <v>18.6744</v>
       </c>
       <c r="N3" t="n">
-        <v>118.0844</v>
+        <v>18.6744</v>
       </c>
       <c r="O3" t="n">
-        <v>89.10080000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.029</v>
+        <v>61.05</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.705</v>
       </c>
       <c r="D3" t="n">
-        <v>15.334</v>
+        <v>187.762</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.617</v>
+        <v>51.329</v>
       </c>
       <c r="G3" t="n">
-        <v>26.777</v>
+        <v>48.598</v>
       </c>
       <c r="H3" t="n">
-        <v>4.839</v>
+        <v>2.732</v>
       </c>
       <c r="I3" t="n">
-        <v>4.839</v>
+        <v>2.732</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>471.3684</v>
+        <v>63.94380000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>26.778</v>
+        <v>48.598</v>
       </c>
       <c r="M3" t="n">
-        <v>444.5903999999999</v>
+        <v>15.3458</v>
       </c>
       <c r="N3" t="n">
-        <v>144.431</v>
+        <v>2.0378</v>
       </c>
       <c r="O3" t="n">
-        <v>300.1594</v>
+        <v>13.308</v>
       </c>
     </row>
     <row r="4">

--- a/SA_Locations/SA_Location_Minnesota.xlsx
+++ b/SA_Locations/SA_Location_Minnesota.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.54649999999999</v>
+        <v>32.0124</v>
       </c>
       <c r="C2" t="n">
-        <v>3.79715</v>
+        <v>6.269600000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>147.7371</v>
+        <v>142.6375</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>38.6336</v>
+        <v>37.64915000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>38.6336</v>
+        <v>37.64915000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>43.1908</v>
+        <v>42.2058</v>
       </c>
       <c r="L2" t="n">
-        <v>38.634</v>
+        <v>37.649</v>
       </c>
       <c r="M2" t="n">
-        <v>4.556800000000001</v>
+        <v>4.5568</v>
       </c>
       <c r="N2" t="n">
-        <v>4.556800000000001</v>
+        <v>4.5568</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,37 +570,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.981</v>
+        <v>61.255</v>
       </c>
       <c r="C3" t="n">
-        <v>2.162</v>
+        <v>2.449</v>
       </c>
       <c r="D3" t="n">
-        <v>197.677</v>
+        <v>197.088</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>51.555</v>
+        <v>50.383</v>
       </c>
       <c r="G3" t="n">
-        <v>48.828</v>
+        <v>47.644</v>
       </c>
       <c r="H3" t="n">
-        <v>2.727</v>
+        <v>2.739</v>
       </c>
       <c r="I3" t="n">
-        <v>2.727</v>
+        <v>2.739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.828</v>
+        <v>47.644</v>
       </c>
       <c r="L3" t="n">
-        <v>48.828</v>
+        <v>47.644</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.599</v>
+        <v>79.155</v>
       </c>
       <c r="C4" t="n">
-        <v>2.906</v>
+        <v>3.078</v>
       </c>
       <c r="D4" t="n">
-        <v>197.438</v>
+        <v>197.085</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="G4" t="n">
-        <v>54.49228219178082</v>
+        <v>53.39058082191782</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="L4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.29184999999999</v>
+        <v>26.79765</v>
       </c>
       <c r="C2" t="n">
-        <v>3.9912</v>
+        <v>6.501450000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>152.04065</v>
+        <v>146.8535</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.0752</v>
+        <v>36.10555000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>37.0752</v>
+        <v>36.10555000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>78.473</v>
+        <v>76.877</v>
       </c>
       <c r="L2" t="n">
-        <v>37.075</v>
+        <v>36.106</v>
       </c>
       <c r="M2" t="n">
-        <v>41.398</v>
+        <v>40.771</v>
       </c>
       <c r="N2" t="n">
-        <v>41.398</v>
+        <v>40.771</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.731</v>
+        <v>37.668</v>
       </c>
       <c r="C3" t="n">
-        <v>12.696</v>
+        <v>10.05</v>
       </c>
       <c r="D3" t="n">
-        <v>176.056</v>
+        <v>177.886</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>46.471</v>
+        <v>45.912</v>
       </c>
       <c r="G3" t="n">
-        <v>41.802</v>
+        <v>40.568</v>
       </c>
       <c r="H3" t="n">
-        <v>4.669</v>
+        <v>5.344</v>
       </c>
       <c r="I3" t="n">
-        <v>4.669</v>
+        <v>5.344</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>65.71000000000001</v>
+        <v>63.98599999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>41.802</v>
+        <v>40.568</v>
       </c>
       <c r="M3" t="n">
-        <v>23.908</v>
+        <v>23.418</v>
       </c>
       <c r="N3" t="n">
-        <v>23.908</v>
+        <v>23.418</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.947</v>
+        <v>70.002</v>
       </c>
       <c r="C4" t="n">
-        <v>2.329</v>
+        <v>7.605</v>
       </c>
       <c r="D4" t="n">
-        <v>198.623</v>
+        <v>187.794</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>51.71</v>
+        <v>50.774</v>
       </c>
       <c r="G4" t="n">
-        <v>51.7101205479452</v>
+        <v>50.7739095890411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>54.575</v>
+        <v>53.6682</v>
       </c>
       <c r="L4" t="n">
-        <v>51.71</v>
+        <v>50.774</v>
       </c>
       <c r="M4" t="n">
-        <v>2.865</v>
+        <v>2.8942</v>
       </c>
       <c r="N4" t="n">
-        <v>2.865</v>
+        <v>2.8942</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.60524999999999</v>
+        <v>31.1062</v>
       </c>
       <c r="C2" t="n">
-        <v>3.133900000000001</v>
+        <v>4.577599999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>148.9658</v>
+        <v>145.9664</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>38.2901</v>
+        <v>37.25110000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>38.2901</v>
+        <v>37.25110000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>50.7976</v>
+        <v>50.1186</v>
       </c>
       <c r="L2" t="n">
-        <v>38.29</v>
+        <v>37.251</v>
       </c>
       <c r="M2" t="n">
-        <v>12.5076</v>
+        <v>12.8676</v>
       </c>
       <c r="N2" t="n">
-        <v>12.5076</v>
+        <v>12.8676</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,37 +1056,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.981</v>
+        <v>61.255</v>
       </c>
       <c r="C3" t="n">
-        <v>2.162</v>
+        <v>2.449</v>
       </c>
       <c r="D3" t="n">
-        <v>197.677</v>
+        <v>197.088</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>51.555</v>
+        <v>50.383</v>
       </c>
       <c r="G3" t="n">
-        <v>48.828</v>
+        <v>47.644</v>
       </c>
       <c r="H3" t="n">
-        <v>2.727</v>
+        <v>2.739</v>
       </c>
       <c r="I3" t="n">
-        <v>2.727</v>
+        <v>2.739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.828</v>
+        <v>47.644</v>
       </c>
       <c r="L3" t="n">
-        <v>48.828</v>
+        <v>47.644</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.599</v>
+        <v>79.155</v>
       </c>
       <c r="C4" t="n">
-        <v>2.906</v>
+        <v>3.078</v>
       </c>
       <c r="D4" t="n">
-        <v>197.438</v>
+        <v>197.085</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="G4" t="n">
-        <v>54.49228219178082</v>
+        <v>53.39058082191782</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="L4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.9457</v>
+        <v>29.25955</v>
       </c>
       <c r="C2" t="n">
-        <v>3.44245</v>
+        <v>5.13815</v>
       </c>
       <c r="D2" t="n">
-        <v>144.18215</v>
+        <v>140.6869</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.6977</v>
+        <v>36.6158</v>
       </c>
       <c r="G2" t="n">
-        <v>37.6977</v>
+        <v>36.6158</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>66.2628</v>
+        <v>66.73939999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>37.698</v>
+        <v>36.616</v>
       </c>
       <c r="M2" t="n">
-        <v>28.5648</v>
+        <v>30.1234</v>
       </c>
       <c r="N2" t="n">
-        <v>28.5648</v>
+        <v>30.1234</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.731</v>
+        <v>40.769</v>
       </c>
       <c r="C3" t="n">
-        <v>12.696</v>
+        <v>14.381</v>
       </c>
       <c r="D3" t="n">
-        <v>176.056</v>
+        <v>172.599</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>47.779</v>
+        <v>47.145</v>
       </c>
       <c r="G3" t="n">
-        <v>41.802</v>
+        <v>41.902</v>
       </c>
       <c r="H3" t="n">
-        <v>5.977</v>
+        <v>5.243</v>
       </c>
       <c r="I3" t="n">
-        <v>5.977</v>
+        <v>5.243</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.4764</v>
+        <v>58.37579999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>41.802</v>
+        <v>41.902</v>
       </c>
       <c r="M3" t="n">
-        <v>18.6744</v>
+        <v>16.4738</v>
       </c>
       <c r="N3" t="n">
-        <v>18.6744</v>
+        <v>16.4738</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.599</v>
+        <v>79.155</v>
       </c>
       <c r="C4" t="n">
-        <v>2.906</v>
+        <v>3.078</v>
       </c>
       <c r="D4" t="n">
-        <v>196.151</v>
+        <v>195.798</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.466</v>
+        <v>53.364</v>
       </c>
       <c r="G4" t="n">
-        <v>54.46581917808219</v>
+        <v>53.36411780821918</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>54.57620000000001</v>
+        <v>53.4744</v>
       </c>
       <c r="L4" t="n">
-        <v>54.46599999999999</v>
+        <v>53.364</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1102</v>
+        <v>0.1104</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1102</v>
+        <v>0.1104</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.57330000000001</v>
+        <v>31.9586</v>
       </c>
       <c r="C2" t="n">
-        <v>3.1167</v>
+        <v>5.421200000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>142.3423</v>
+        <v>137.5753</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>38.4592</v>
+        <v>37.4382</v>
       </c>
       <c r="G2" t="n">
-        <v>38.4592</v>
+        <v>37.4382</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.7306</v>
+        <v>53.84220000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>38.459</v>
+        <v>37.438</v>
       </c>
       <c r="M2" t="n">
-        <v>22.2716</v>
+        <v>16.4042</v>
       </c>
       <c r="N2" t="n">
-        <v>17.1546</v>
+        <v>16.4042</v>
       </c>
       <c r="O2" t="n">
-        <v>5.117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.05</v>
+        <v>61.255</v>
       </c>
       <c r="C3" t="n">
-        <v>1.705</v>
+        <v>2.449</v>
       </c>
       <c r="D3" t="n">
-        <v>187.762</v>
+        <v>186.236</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>51.329</v>
+        <v>50.16</v>
       </c>
       <c r="G3" t="n">
-        <v>48.598</v>
+        <v>47.421</v>
       </c>
       <c r="H3" t="n">
-        <v>2.732</v>
+        <v>2.739</v>
       </c>
       <c r="I3" t="n">
-        <v>2.732</v>
+        <v>2.739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>63.94380000000001</v>
+        <v>49.4588</v>
       </c>
       <c r="L3" t="n">
-        <v>48.598</v>
+        <v>47.421</v>
       </c>
       <c r="M3" t="n">
-        <v>15.3458</v>
+        <v>2.0378</v>
       </c>
       <c r="N3" t="n">
         <v>2.0378</v>
       </c>
       <c r="O3" t="n">
-        <v>13.308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.599</v>
+        <v>79.155</v>
       </c>
       <c r="C4" t="n">
-        <v>2.906</v>
+        <v>3.078</v>
       </c>
       <c r="D4" t="n">
-        <v>197.438</v>
+        <v>197.085</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="G4" t="n">
-        <v>54.49228219178082</v>
+        <v>53.39058082191782</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="L4" t="n">
-        <v>54.492</v>
+        <v>53.391</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/SA_Locations/SA_Location_Minnesota.xlsx
+++ b/SA_Locations/SA_Location_Minnesota.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,43 +521,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.0124</v>
+        <v>25.53155</v>
       </c>
       <c r="C2" t="n">
-        <v>6.269600000000001</v>
+        <v>9.113199999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>142.6375</v>
+        <v>192.0979</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.64915000000001</v>
+        <v>6831.318949999999</v>
       </c>
       <c r="G2" t="n">
-        <v>37.64915000000001</v>
+        <v>5622.864149999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1208.4549</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1208.4549</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.2058</v>
+        <v>6333.890800000001</v>
       </c>
       <c r="L2" t="n">
-        <v>37.649</v>
+        <v>5622.867</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5568</v>
+        <v>711.0237999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5568</v>
+        <v>711.0237999999999</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.255</v>
+        <v>25.189</v>
       </c>
       <c r="C3" t="n">
-        <v>2.449</v>
+        <v>9.032</v>
       </c>
       <c r="D3" t="n">
-        <v>197.088</v>
+        <v>195.312</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.383</v>
+        <v>6892.025</v>
       </c>
       <c r="G3" t="n">
-        <v>47.644</v>
+        <v>5604.182</v>
       </c>
       <c r="H3" t="n">
-        <v>2.739</v>
+        <v>1287.843</v>
       </c>
       <c r="I3" t="n">
-        <v>2.739</v>
+        <v>1287.843</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.644</v>
+        <v>6333.544800000001</v>
       </c>
       <c r="L3" t="n">
-        <v>47.644</v>
+        <v>5604.179</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>729.3658000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>729.3658000000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.155</v>
+        <v>30.266</v>
       </c>
       <c r="C4" t="n">
-        <v>3.078</v>
+        <v>9.795</v>
       </c>
       <c r="D4" t="n">
-        <v>197.085</v>
+        <v>207.801</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>53.391</v>
+        <v>7916.777</v>
       </c>
       <c r="G4" t="n">
-        <v>53.39058082191782</v>
+        <v>6315.404</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1601.373</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1601.373</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>53.391</v>
+        <v>6615.6782</v>
       </c>
       <c r="L4" t="n">
-        <v>53.391</v>
+        <v>6315.404</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>300.2742</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>300.2742</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,43 +764,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.79765</v>
+        <v>25.6288</v>
       </c>
       <c r="C2" t="n">
-        <v>6.501450000000001</v>
+        <v>9.415399999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>146.8535</v>
+        <v>188.339</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>36.10555000000001</v>
+        <v>6704.610799999999</v>
       </c>
       <c r="G2" t="n">
-        <v>36.10555000000001</v>
+        <v>5617.5789</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1087.03205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1087.03205</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>76.877</v>
+        <v>6808.4496</v>
       </c>
       <c r="L2" t="n">
-        <v>36.106</v>
+        <v>5617.587</v>
       </c>
       <c r="M2" t="n">
-        <v>40.771</v>
+        <v>1190.8626</v>
       </c>
       <c r="N2" t="n">
-        <v>40.771</v>
+        <v>1190.8626</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.668</v>
+        <v>25.216</v>
       </c>
       <c r="C3" t="n">
-        <v>10.05</v>
+        <v>9.27</v>
       </c>
       <c r="D3" t="n">
-        <v>177.886</v>
+        <v>189.954</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>45.912</v>
+        <v>6773.475</v>
       </c>
       <c r="G3" t="n">
-        <v>40.568</v>
+        <v>5576.304</v>
       </c>
       <c r="H3" t="n">
-        <v>5.344</v>
+        <v>1197.171</v>
       </c>
       <c r="I3" t="n">
-        <v>5.344</v>
+        <v>1197.171</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>63.98599999999999</v>
+        <v>6801.4792</v>
       </c>
       <c r="L3" t="n">
-        <v>40.568</v>
+        <v>5576.282</v>
       </c>
       <c r="M3" t="n">
-        <v>23.418</v>
+        <v>1225.1972</v>
       </c>
       <c r="N3" t="n">
-        <v>23.418</v>
+        <v>1225.1972</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.002</v>
+        <v>30.266</v>
       </c>
       <c r="C4" t="n">
-        <v>7.605</v>
+        <v>9.795</v>
       </c>
       <c r="D4" t="n">
-        <v>187.794</v>
+        <v>207.801</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>50.774</v>
+        <v>7916.777</v>
       </c>
       <c r="G4" t="n">
-        <v>50.7739095890411</v>
+        <v>6315.404</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1601.373</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1601.373</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>53.6682</v>
+        <v>7033.082800000001</v>
       </c>
       <c r="L4" t="n">
-        <v>50.774</v>
+        <v>6315.404</v>
       </c>
       <c r="M4" t="n">
-        <v>2.8942</v>
+        <v>717.6788</v>
       </c>
       <c r="N4" t="n">
-        <v>2.8942</v>
+        <v>717.6788</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,43 +1007,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.1062</v>
+        <v>25.0192</v>
       </c>
       <c r="C2" t="n">
-        <v>4.577599999999999</v>
+        <v>9.056899999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>145.9664</v>
+        <v>187.289</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.25110000000001</v>
+        <v>6659.820999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>37.25110000000001</v>
+        <v>5525.25105</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1134.5701</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1134.5701</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>50.1186</v>
+        <v>6976.9206</v>
       </c>
       <c r="L2" t="n">
-        <v>37.251</v>
+        <v>5525.26</v>
       </c>
       <c r="M2" t="n">
-        <v>12.8676</v>
+        <v>1451.6606</v>
       </c>
       <c r="N2" t="n">
-        <v>12.8676</v>
+        <v>1451.6606</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.255</v>
+        <v>24.983</v>
       </c>
       <c r="C3" t="n">
-        <v>2.449</v>
+        <v>9.103</v>
       </c>
       <c r="D3" t="n">
-        <v>197.088</v>
+        <v>188.254</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.383</v>
+        <v>6730.028</v>
       </c>
       <c r="G3" t="n">
-        <v>47.644</v>
+        <v>5530.051</v>
       </c>
       <c r="H3" t="n">
-        <v>2.739</v>
+        <v>1199.977</v>
       </c>
       <c r="I3" t="n">
-        <v>2.739</v>
+        <v>1199.977</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.644</v>
+        <v>6976.0238</v>
       </c>
       <c r="L3" t="n">
-        <v>47.644</v>
+        <v>5530.089</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1445.9348</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1445.9348</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.155</v>
+        <v>23.235</v>
       </c>
       <c r="C4" t="n">
-        <v>3.078</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>197.085</v>
+        <v>204.042</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>53.391</v>
+        <v>7537.803</v>
       </c>
       <c r="G4" t="n">
-        <v>53.39058082191782</v>
+        <v>5458.513</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2079.29</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2079.29</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>53.391</v>
+        <v>7019.436199999999</v>
       </c>
       <c r="L4" t="n">
-        <v>53.391</v>
+        <v>5458.513</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1560.9232</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1560.9232</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,43 +1250,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.25955</v>
+        <v>24.96525</v>
       </c>
       <c r="C2" t="n">
-        <v>5.13815</v>
+        <v>9.340449999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>140.6869</v>
+        <v>187.4061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>36.6158</v>
+        <v>6622.63005</v>
       </c>
       <c r="G2" t="n">
-        <v>36.6158</v>
+        <v>5530.836800000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1091.7934</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1091.7934</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>66.73939999999999</v>
+        <v>7096.462000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>36.616</v>
+        <v>5530.837</v>
       </c>
       <c r="M2" t="n">
-        <v>30.1234</v>
+        <v>1565.625</v>
       </c>
       <c r="N2" t="n">
-        <v>30.1234</v>
+        <v>1565.625</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.769</v>
+        <v>24.979</v>
       </c>
       <c r="C3" t="n">
-        <v>14.381</v>
+        <v>9.262</v>
       </c>
       <c r="D3" t="n">
-        <v>172.599</v>
+        <v>189.31</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>47.145</v>
+        <v>6699.843</v>
       </c>
       <c r="G3" t="n">
-        <v>41.902</v>
+        <v>5543.759</v>
       </c>
       <c r="H3" t="n">
-        <v>5.243</v>
+        <v>1156.085</v>
       </c>
       <c r="I3" t="n">
-        <v>5.243</v>
+        <v>1156.085</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>58.37579999999999</v>
+        <v>7095.389</v>
       </c>
       <c r="L3" t="n">
-        <v>41.902</v>
+        <v>5543.69</v>
       </c>
       <c r="M3" t="n">
-        <v>16.4738</v>
+        <v>1551.699</v>
       </c>
       <c r="N3" t="n">
-        <v>16.4738</v>
+        <v>1551.699</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.155</v>
+        <v>30.266</v>
       </c>
       <c r="C4" t="n">
-        <v>3.078</v>
+        <v>9.795</v>
       </c>
       <c r="D4" t="n">
-        <v>195.798</v>
+        <v>207.801</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>53.364</v>
+        <v>7916.777</v>
       </c>
       <c r="G4" t="n">
-        <v>53.36411780821918</v>
+        <v>6315.404</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1601.373</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1601.373</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>53.4744</v>
+        <v>7198.371600000001</v>
       </c>
       <c r="L4" t="n">
-        <v>53.364</v>
+        <v>6315.404</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1104</v>
+        <v>882.9676000000002</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1104</v>
+        <v>882.9676000000002</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,43 +1493,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.9586</v>
+        <v>25.1498</v>
       </c>
       <c r="C2" t="n">
-        <v>5.421200000000001</v>
+        <v>9.076849999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>137.5753</v>
+        <v>189.9102</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.4382</v>
+        <v>6717.2902</v>
       </c>
       <c r="G2" t="n">
-        <v>37.4382</v>
+        <v>5560.8231</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1156.46715</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1156.46715</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.84220000000001</v>
+        <v>6706.5644</v>
       </c>
       <c r="L2" t="n">
-        <v>37.438</v>
+        <v>5560.829</v>
       </c>
       <c r="M2" t="n">
-        <v>16.4042</v>
+        <v>1145.7354</v>
       </c>
       <c r="N2" t="n">
-        <v>16.4042</v>
+        <v>1145.7354</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.255</v>
+        <v>24.934</v>
       </c>
       <c r="C3" t="n">
-        <v>2.449</v>
+        <v>9.064</v>
       </c>
       <c r="D3" t="n">
-        <v>186.236</v>
+        <v>190.068</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.16</v>
+        <v>6796.7</v>
       </c>
       <c r="G3" t="n">
-        <v>47.421</v>
+        <v>5536.524</v>
       </c>
       <c r="H3" t="n">
-        <v>2.739</v>
+        <v>1260.176</v>
       </c>
       <c r="I3" t="n">
-        <v>2.739</v>
+        <v>1260.176</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>49.4588</v>
+        <v>6708.539600000001</v>
       </c>
       <c r="L3" t="n">
-        <v>47.421</v>
+        <v>5536.523</v>
       </c>
       <c r="M3" t="n">
-        <v>2.0378</v>
+        <v>1172.0166</v>
       </c>
       <c r="N3" t="n">
-        <v>2.0378</v>
+        <v>1172.0166</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.155</v>
+        <v>30.266</v>
       </c>
       <c r="C4" t="n">
-        <v>3.078</v>
+        <v>9.795</v>
       </c>
       <c r="D4" t="n">
-        <v>197.085</v>
+        <v>207.801</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>53.391</v>
+        <v>7916.777</v>
       </c>
       <c r="G4" t="n">
-        <v>53.39058082191782</v>
+        <v>6315.404</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1601.373</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1601.373</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>53.391</v>
+        <v>6913.321000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>53.391</v>
+        <v>6315.404</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>597.917</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>597.917</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>